--- a/Job Hunter/max.xlsx
+++ b/Job Hunter/max.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P2\Goldeneyez-P2\Job Hunter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Programming\Revature\Revature UIPath Batch\Goldeneyez-P2\P2\Goldeneyez-P2\Job Hunter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B23D1F-8B80-416D-9F1E-216AAD821311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ADC06C-3945-4926-8401-7E639F7BFFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E082CC37-61B3-406E-AAB1-66ABDE18D9E3}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{E082CC37-61B3-406E-AAB1-66ABDE18D9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>JobTitles</t>
   </si>
@@ -57,136 +57,131 @@
     <t>Full-time</t>
   </si>
   <si>
-    <t>NO EXPERIENCE TO EXPERIENCED ELECTRICIANS</t>
-  </si>
-  <si>
-    <t>Fox Electric, Ltd</t>
-  </si>
-  <si>
     <t>Dallas, TX</t>
   </si>
   <si>
-    <t>Serving the DFW Metroplex since 1960, Fox Electric, Ltd. (TECL 17176), has earned the trademark for reliability and performance. We are dedicated to q...</t>
-  </si>
-  <si>
     <t>Dallas-Fort Worth, TX</t>
   </si>
   <si>
-    <t>Construction Worker</t>
-  </si>
-  <si>
-    <t>Regal Plastics Supply</t>
-  </si>
-  <si>
-    <t>Dallas, TX 75229</t>
-  </si>
-  <si>
-    <t>Detail Oriented - Self Disciplined - Precise - WANTEDThis is a very entrepreneurial company!We do not do bureaucracy or politicsWe are honest and to t...</t>
-  </si>
-  <si>
-    <t>Entry-Level Construction/Crew Member</t>
-  </si>
-  <si>
-    <t>Concrete Polishing &amp; Restoration</t>
-  </si>
-  <si>
-    <t>Concrete Polishing + Restoration is one of the largest preferred nationwide polish concrete specialists. CP+R provides trusted and reliable resurfacin...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BoOvQ1j40gWF6rF10I7m0TP-QLw5Tz3u283JIqn6KyRdo0TXkehBYYVkY7T17HG3Q4-T-AFiy5CvjkSQmpz6kK4TstAIwAI0pW9aZH-BB1FV0kwqXMxyTWwoG0VwZ4bMuVM5RYdhc9Tva3Qe8if4RH5OaTLuIJjLFznaTj4UREg8PyTQ0Wl4Ko69gaMXVCMyjvaP8jpHB6eaci60aZQsfYTFtpGutZWN-vjZTk-RzSSQjekDweNsvq4Y4WiNhqdp-_96XFlIDsnvKkjHY4HiD7UOX3A-XYVMZvK2Y9uZGiabOrFq-eW6m9r9d5WMXrbcJQAAZF0OOwrZXqXOnHT9U2RBtTwoptDTWQ8_1xombGLYLl-LlIWhN9ntOBzHumeUR4dmNHXW_5cGBTTsEE2kAs7tNyHC31xU3n32_emQu5VXuzBF_ObWHbgflARa0D5smeAiX7XKhVX1zQAOrwee8mddOBVKBi5O9H5Iv7V_bA4w==&amp;p=0&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DB7hTp46v-qIB0FyOlWxxjcmKonm3G1LWPqS08PBoTVd1FH0X1ZqDUFoFZg_tu4n72hZj7Yx53rdXsAEgZivUwCnn4gmOOWook2GWkwwGnfI8H1Uy-8QsBvuQFO3Xf5Q455eRA5wp-5lNjxdGYoPsJy8oZ6Gm_v6UVnlp66o43lX3D4JnRn4SN4l_b8BeiYHyC7hEeEJPvEquC5mMG31ycdvlbJX4zMLwTm5b-4_JK0nrrIYtmUBDqdKzCcE6w-WdtvqMTNYodlC84yu3KqX267ouHRuPB0GHjXLVbRUePkrRjIhywB-lZhd_SR2QaRRQjcSrkAZPAwugcrRGmpZbXXHQx3LTQo7j2st6vuh-mYLagq5k-EH4uyb-Fn__6X2pnFq0zzy0ecau0pLiTdeTTA_EJsjrl8cVZ6loklBECK5NzELq3UlFUc2bdhTSM1wMar00rPHdtQRGJ8YmTNUROH9_0S7zndA8punkfP73W2gY85t82J3iamT05bSVDSIBfBtocm2CWRw==&amp;p=1&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DW0WOmGWEV4b4Dzb5OdV32YtbJoW1L1hkwMdLms67Sj6ymG7YHdgcSvGFk3qY7vN2171GH0wEmc07lBqmJDU_aDdVwrTVZSaIiu7IgTovdvhaSzqs9otIOvq0r8Fcf95tm7zQ1eJg270vWWMa8UBjxCGa40lK2W9lT_RTKQ0It24s9cvsX65TQkX7A-pASXOfdhF-UrrR7opJMMBtcogEsJP8LnIktTdvjJN5JcjTsfaQjzNh7QmmhHkXL85O3hluVKDNYyjl__yAb6S8KKSPT6rHD7DAvixhMoZZwgrHUpZ2XEiM_muA29i4eI0CHVBA39BYXMmYth_BhxoScfs857EZD9ulqVu7_ECRuNXkT5l2aoahxGBnNW5JlrFwE3FJzMkfIjJVewe9quitWSklzJZDd73nUz_3veecSIPsjSHsrL65U_ub60DpRPPpbL57Ar7fdxwHzuHZDYtmxgkqb8Mi1Kot7y-HArKLnuin9qw4QMq7HVZ_-CpIHmVfTLao=&amp;p=2&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Garage Door Technician</t>
-  </si>
-  <si>
-    <t>Neighborhood Garage Door Service</t>
-  </si>
-  <si>
-    <t>COMMISSION Starting at 25% - EXPERIENCED Techs NegotiableWE PAY YOU WHILE TRAININGCome join our family of professionals. Our Garage Door Technicians a...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0COwhwOSkxeM-FV287HzCFs_s1V9tAVAkLafmMK-ntvweRzmsDswgwMDvFrt182GGeYz_NX0UCW2QR7j9p1V1MT-JQfOaf4s85EEI6peniAOD5g7tBj_EFDErnbAV8mcXttS8C0KjTgSqPYMjzuxmP37HIu_gUfovmsRENnLt-N3iiw9W7h-yT-eEqil0bpy_HC9rZ3OSDOhcHmD_z_O6WJcNYyno6HP4NqY3AusoEg7tB8sGL5tDyUpfSg-S-EQm5CXNQL4m4IxGMCTMfG-YkBjz4lRF1lHNDbdVNNvdyYcHJ5kw89TdV-IaZTHR5K5ej5YRlzCMrRInevebuYwFEAlQ43-8t9ZVN4q4Eyoz8TNrCnwsm_w4CGkVR48Emb_Eu27jXhG6v23qk20zYvSFRxJSf04_yWSwhqlIwMxuCz0r70efUsV1oq16eyFY0cRg6nWSKVjnT4YCY2F4QpsZmiF9sNmcKbnAk=&amp;p=3&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>mason, bricklayer, blocklayer, stone masons</t>
-  </si>
-  <si>
-    <t>jac, llc</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>looking for masons for commercial work in Coloradolooking for block layers for a high school in Pueblo, Coloradohousing during the week and subsistenc...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0C6rYuGmUqPvHhQ4bChp5dYGpoEWufC8jdQODbkHUi6gKR7veRa1ABcNhrL6WfdT-iHHplxdk_lP0SYByvV9caMBR4cXd22a3qZrXNlwNBc94TlmOL-UG85zglDELBXhl59rVVTtuXeQhWhF3Kns946JqpMRrK-CDFB_MVSFIXTdoBMyRvBxYPBYlp1YylMDlmZgO9V82zUqe_si_vNSxE_A3gcdH-mcZdWy9SGTJxTHW-T1M8-foSCpmAMbbPWDAvRi5o460I3eKcSX5RSaz6kJvcpMWZES3OSk__VGfFCDP36hGVgyrBAeUjXv3XKvuICTMtl12x3A0aNOn0zY_Tgnqpehnv7aczwIhvtZz0pi9mxjdVFavvv_3DCtZ6_qyfqI8G-nA_6-KdKEdNOpJDtKHYLfRWARlpNSoM7yJXmPm3JKEFYMY0SWalxbMYGzVhIQhRi7LlVJEa9cJmnWnssQuUAtOf5s9kC8NMR5TZdIqL_YAvBuj6dqLJ1seVSPNU=&amp;p=4&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Monster Constructors</t>
-  </si>
-  <si>
-    <t>About usMonster Constructors is An ICF installer of homes and swimming poolsSkilled and general Laborer.Company works in a diverse array of constructi...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BJko6cRSbCTzwKYuGH5s4Lp9tMMuP6RBDc7VIIwAcxlteiF1kORd-E8eo5cMpxbSjgt0_gwvgm_yqnjSt_w0qWsVVCxZllQ8We2CuI1y4HVvgVvwB70CPvpxQT3klxjDNof-JYinWG1qroBJv0G3tQCoi7zZ2d8vszX5ZCCLPD2k_-WH6ntTlp4PPb7FQHEXxyWh4tWy2r3wTlioOJq88a5xOLl-n5OBop11izNDjY91u3xQZV-ieZe2iDNzWPX9_VfRuTtqIi_qrwRzrV_qrVct9p4vAfim37mlXMe9p7p8IOGu2evObOxWP2R5ytLbfpuzs1TXALP6PTSWWQYJHQRMrTMGveJ5B5bgyAMXq-VvDkgSv_514Or0UK6eoReqaeJwCu_SbPAQhvEaPQZA_7VztWaXfS7CIHwSDHIKJnVBCrrFzKK_lzNE6HMoFDTA0ZLTwkOj8kJmKgVkI73To311RnMRA1qr0=&amp;p=5&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Installer Carpenter - Starting at $800-$1200</t>
-  </si>
-  <si>
-    <t>Bath Fitter</t>
-  </si>
-  <si>
-    <t>Tired of working on contract? Want to earn while you learn? Does having stability of year-round work, and the security of a reputable, continually gro...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DzOd5B0fX77T32elOfi8BusiGqU4lub_5LrHrHY1EFizwKjsA7qJBBAChMuksDWsr1rs2UC7oE8oyBH4CyFVtfpJk2-NYJThPAvUv-GouszRFeJLVsKcuPZApLyKA_hxqqD6aGAePeLzErYBYEDejrP8TXBtaOd4H2sqdgrTe953p6HG78BUyobI_cQsRu3nGHQV7IvfVnBPAXYPNF4LKy28r_YxYIa6rDs9l49pg-zzuX0ooRjwBP9xC1MG5FflaDSBPLmZn1Hk5ohYJ-JEgGcEFTt7jXX4saCIVKrggR-8mqxYP-6OslLFREccvZ_XH6RkVXcTRcgWbdYfOEML6EtIe_qxg92BYENL-TshkmcF_NkilqRRxCq9VnRESPNa2otOOAHe2Ia32EkaJU8L-oXBkcV5cvl8uAs9_FO_GAeLXdZjAHewlgStRVjrN0mlHTZQY3RddJcpGGAlyO6Ub6A--Vo4IoSZb-V1qbU7-h0TSvCgAah3xi&amp;p=6&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Construction Superintendent</t>
-  </si>
-  <si>
-    <t>PDW Construction, LLC.</t>
-  </si>
-  <si>
-    <t>As a Commercial Construction Superintendent, you will need to have your own vehicle as there will be material runs and traveling— mostly local, occasi...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AS3oPsAAmCngCu4U51_2RxXyfS7TdWOFtWPOafNW52I-ldRzUjEZRI6-OMDJ_t4rMm6fYYCVKYH2CgdGR3t7UczdgJLLuUPdJcRST4HsAnaYuD3czIPVgRExeMbGF7aqupDfhh_y_yGJ_YMSa82PGV6V7snAZbUrSrM5w1YpZxR00KiXse4MgWDg8uebhQaHPuPUxOtPMDKhZIVgeUDw2PgrIDUdMdb6rGMm0yVWd_XoAsUf69NRrSXUKlxQFzZEHcuZnG8Y1eWjl0uwKhQHI2gdHu4ngT4wsFB0ov3Mi_VS9hmFxW5h8oViMYoM5Ls625q9HCRkRQIB5fvCFS9UvdHaUTQb78jbtqrMfz8GpCXGyYjD0Uwezkw5rZ_koOcq2AtSxzFNL5KnHDyxHNyLAYTV6L7GvYFyYUaW-s3fs3H-OgSEBtK6NHBjQ6XJcIIMEqkwWZ9FEUiZg4tXGg7r0qXV9jyzK5PNX2LK3Cq5Kyng==&amp;p=7&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Painters</t>
-  </si>
-  <si>
-    <t>Painting &amp; Contracting, Inc.</t>
-  </si>
-  <si>
-    <t>Commercial Painter Commercial Painting Company looking for Experienced Painters and Laborers in Dallas Area. Immediately Employment $ 19-$25 per hour....</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0CDxignU7RYbIiwPOLiFxsFxUNlghQ71Hna6c-WY9emtJ6R51xvxslW60cOykqPxGvrXGoWjcK1J1uYvAl0OEfbO36qTHgh6uihThZBG7zuvjE6eLRekQrJ-0613ld5kfp04N0z--p8cZw-cfHGLZ31NCwz8o4zOnC3h2ykPR99DKb_ADERcNyHJ3MvwL79z12LqZTfk-5UUr4T3PhJStZ4H3wYmVi8z3SPw2gT5_JW1u_lE2rM0eWL7ZvdN3i9WnxXZBAgY9Lj2p-W26oo5qP1Oqhf9P8w13aOFNKIPkI86ha2lyOGzq0cL9N4nLmMeey_rC2f8M4S9n0k5NCyWUs7pwc1CWJiQp-BtzYlS1uEMCG-P4tHXBD1gOyIY98C1S0or77AR-VGGADsq6wE3AyIvZ6HHYVTSyYZwAIW-FSIHXhv2GSUReBvZJplbMlRXj0o5d_fgk7VHnWkAldj60JR&amp;p=8&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>New Construction Reviewer (AD)</t>
-  </si>
-  <si>
-    <t>CornerStone Staffing</t>
-  </si>
-  <si>
-    <t>Dallas, TX 75244</t>
-  </si>
-  <si>
-    <t>Do you have Home Building experience and ready to transition to the Administrative side of the business? We have the perfect job for you with a Leader...</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AbSXXNuf24ffuYqQoeaG1PnVOUZGhv4QWjCyMy46Qsrxmp3blbJeY1SLEgN0IjgY4haymBPLYe60RiaDvN0DIQGvc1pyMQLUB3lJ38rmcrKyZLM8R5efERYSm8qkivornISJjoyLUjphWrKppT6pGn71VKeh0uUqaGxyyWMzXh8NTEJ_nmaQxAk1UYFckR-vgD4QOi3P26aMzwf0lKtpNkEpxPzt_jV9QpcRoCoImP4u1Czkti8cFLNLLx7ZHlUe2aTZvfmTsHtTs5v8_4TtfwRiXNk5P5XVMSkgcFH0xchwHc0rcsAv_ZjSUQAKrcwh_SwAPv5__Q8BCxIxG_aai7T490Z54Qg27rv5QpUt7bXS-QrygN5qhyMZtkeHg8etOWvvtKptKZe2cDdvYrQ5qwAAiAQw8C1yBCxHqvUopDrlOSNW4Y-scPyRd_s7-DYtUmfHc2DuMxnXpTEPGY6EPcZPzud8ylBvbDHTA9ttE6NtiMAP4TlsHw&amp;p=9&amp;fvj=1&amp;vjs=3</t>
+    <t>Quality Engineer</t>
+  </si>
+  <si>
+    <t>Automotive Quality Solutions</t>
+  </si>
+  <si>
+    <t>This is Jon Molesky, President of Automotive Quality Solutions, I’ve been recruiting in Automotive Quality since 1990 and this is how I see it in Dall...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BTT1lo8Jwdy_hu5PBsWOg-OgEs4ry3bvHurgSPaoaOHBE1T-3ymbF6VeordM4PU7eIxm5wkXT3Mxg2G7vUVPSuZUojoNJQL3xZLcOFXnVzk1ETljIRmLkQfwBqcXz3UKpOWkzj9EcRb_GGusvlNEeQpVSIcLOEG4dTppChQJuc9C2JuRQxEstQcc9-ipeq32CxmPKvoKYxM3zQs4U5sTHT5-Vc0vACxUd1CNSV8JFEp6vCn5fRnmYDD2AjOlTqLPqoZc_Plj6T4TkJD_vs5KzZU3MVVbTIq3nO9zIeDTX0LjiV8HsQEFAlevP2iF29usAZ7MHQ5o0Lm84JSejy83zFtk3gX66DdguH-D_WXGZHPkZdw7B3JuEn329fJtrE9T9tYNDinGX1YMHCMGl2iVSFs8Byz2qvHjwLW4oQ_GP9qkYVWzT6sZKYmbxvlqovb2awfdiKiRsMBXX7nQt7k9W1peajR8XG__0=&amp;p=0&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Maintenance Engineer</t>
+  </si>
+  <si>
+    <t>Ocado Engineering</t>
+  </si>
+  <si>
+    <t>Mesquite, TX</t>
+  </si>
+  <si>
+    <t>Who We AreOcado is a UK based company admitted to trading on the London Stock Exchange (Ticker OCDO). It comprises one of the world's largest dedicate...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0Ac5fzJWlycUbOTNb_e9ABXEOkO4g4yIRCz8NlUl9bDsyjDj3gn7hpTwvXgBOjqKRX9_KWELuz_iOW8pspody1o61K6Jnt68nsjwEfofQaba9v0W_0ThFCk2I3n5u2zz0TYecHDLQrojH4EG3i93cLvmRa4nGGo_RQ3BduEXjm9qzCa-Sry8SdfqQLWe3lyV_qQekFEJsp8LlYgtgFcpi7fSQImvvY9qBGqEbPk38WuKLWQ8TxOKtCTyquFcUAzQVCJRQYOYNTqON88WBDA4iLLUUCk9FGPc8Z1v1phg7nI4B8sJL73OOxjGIXayXR07cnOYl2wXNGPlsC_IFSb5puCaBaeQLJk86xqE4VwRsVAa_1v1EyubrFMdFWKqO8FYSTyHzR2YtCmIUo2P56JRyXfg6NlVFE2PihXUAt1AaWQsE2_pmSJHzdCss9ctwXgP-XCaI4QoCFn2zuAim3qq2pKrMQWFivrNvKMPVTMn3FQh33SY7ZcC0WpTXrJFQV5Oa2gt1ad7F16PltqkO5RxGTK3fUWxtHd9216R3TAl-FIIHY0swflai-dS7jKl3wyRHZRLpWtNITyLZb2lW2S6Adwk-rA0Y6QIYifRDzWHZ_DK9KGOfCAV3a9u4OG6lenH7D_oF36G_JFZUoVnOHJMX1J_4GOGJNwQuhlHdRGBs2hFA==&amp;p=1&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Manufacturing Engineer</t>
+  </si>
+  <si>
+    <t>Expo Experts</t>
+  </si>
+  <si>
+    <t>If you have a degree and at least 2 years of POST-DEGREE engineering experience, apply to receive the next step on scheduling an interview at our Nove...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0B4UxDIJmUKGd2kfeQacvgwF6-88ZKOROnelcko2DKUQDmmSvzKDCs6U3oQ1vmOB-Nj7ucQ1e_1asvbM8soHbO9cqC7qV8uV3GFOuOqC5EV1IMzubGBCWyYQlUHfst8zuZGFVfSEIAUAZSWhS1dnkIk4M9VvYjksT1CPWy0lmeQG9EdfhDZUJGoevcXITbLFFjCW313xeiySar9ipQxhsDjHBgeEZeN693Pw_-EaWtvmooj1a5kR4Kulv2CharHPRJ8kriTFOVlc0ShWo65JXPwOKuDvhR5KIVrCPO9WT5yV8Zi4idbPrJcVOOkrzCUbXOgJ2NES2tX_l9AzhOAUNJXbJ_NyMNMrmi4Jxv-RKXkmdJIVapTw6LHTkj2miiRlRkoJcN9NYDP1k7sOjhG9USF9is1S8JD5AtI51WtUH_fGuEhenEokXM6tfQWj6nNqt4HmpZKi9eKi09SwTPvGzj3GA_qGcPHc6E=&amp;p=2&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Aerospace Engineer</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0B4UxDIJmUKGd2kfeQacvgwF6-88ZKOROnelcko2DKUQDmmSvzKDCs6U3oQ1vmOB-Nj7ucQ1e_1arKv2DbckrnE7bDlF1KS5wiLmnY8KTujnQOVCFLpo6umwlyTi5mSD33beTgmMvBE_ouWh2p3Eo3XqhzHiwmGqI_VoC7mPwoq6WR3e0L0DxxlidS2m2gmTlrtCIvGVf1O6pyvx8Iw4AM4Mg4_yi5UXRE5404MU0-lHTR71NZjnHsCxKVHWbPenKGuKihny3hg8XHTw3t2fiplGgRhQMbGY_FAvrtuT7uCEcX4vUIEtMvx_haVVkhdOwjUa02t7LZp3TAa0_z3PsFPRVGUYvs6PaFnvApY6qRFCYbxJ9FwdhFlWHyAFKVHmvYw-fTUUS2fgKcBdSO86vUpW0Nj_P4H90Avs_WfXXFRYI1rTfqqdZrcPaCUh8OBQP--G3o2y6lu8_TSOLNF6_9lVYogyhMBYLE=&amp;p=3&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Nuclear Engineer</t>
+  </si>
+  <si>
+    <t>Naval Nuclear Engineering</t>
+  </si>
+  <si>
+    <t>Cedar Hill, TX 75104</t>
+  </si>
+  <si>
+    <t>Operate and maintain Naval Nuclear propulsion plants and associated equipment; supervise and administer naval nuclear propulsion plant operations; tho...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/Naval-Nuclear-Engineering/jobs/Nuclear-Engineer-de3d453823ad1830?fccid=b521eb28dab03c26&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Test Engineer</t>
+  </si>
+  <si>
+    <t>MGA Research Corporation</t>
+  </si>
+  <si>
+    <t>MGA Research Corporation is an independent engineering services firm that provides physical testing, engineering evaluation, and equipment development...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BWXnv2iogYW6GjTN0LLzMd6rNS-HzJZIwjZF2U9LomHjRLi98Zs9mOUvHDJTUrA45QDsdS0RzAKFnlw59-BArdQ_zMbibb6Uku8MN3JbHRPJ3D7C7Otz7_PJIky06gvh9kiSgTDgvFs0SxYF5zlXvr5Ge87jJyAyjgmLEWSupmF6AY5n8Etgh1LA8D4DNeBd7uf8pMnEmZoM7-cK7B5wtDEBPQF-S8ng5bQYs2gLEGQajr16EIMpIpMh2XrU2fVfpxD3ZU8XjiLvzLUwGWeFH8dabIhzAAig-9mPPdW_OrsRS_o6p2IAMZFJIbd-aduKHvreXB7g7TgPMecyhBi4WDB6K52khbbpslYxaK3sYAbr-CtS42QdVkFxvrs-_DT5KQ_vEwNpWN04KqyRR9_wGC-QtIMZlhJXP7hSStU6cyzOmI2LR2-y-bHpNnSCJumKJ9kNPNZJMpJiPzXDQg6Cn_&amp;p=5&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Controls Engineer</t>
+  </si>
+  <si>
+    <t>R&amp;E AUTOMATED SYSTEMS</t>
+  </si>
+  <si>
+    <t>We are seeking a Field Service Controls Engineer to become an integral part of our team! You will perform controls engineering duties in the Industria...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/company/R&amp;E-AUTOMATED-SYSTEMS/jobs/Control-Engineer-eebcd0829791e07f?fccid=ed864a15364f46e3&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Entry Level Civil Engineer</t>
+  </si>
+  <si>
+    <t>Cumulus Design</t>
+  </si>
+  <si>
+    <t>2080 N Hwy 360, Grand Prairie, TX</t>
+  </si>
+  <si>
+    <t>Engineering firm in Grand Prairie, Texas looking for Civil EIT to join our growing team.Knowledge of AutoCAD, Civil3d, and Microsoft Office products r...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DFrH__dz4iBg8m9zUm0B3SnYW7blUgccTQi5YvFD5Z16zGkhYCmPwwyCqvDPSy6kVJLu7x5HvjAFfGMKn7eqNX1a6pqv4vlYnZAJL496pBWZqpZfoFsyUCA6nB8tmd6tI2p2NWpC43wHQ2cKGLlEdUDj2Iz7Oo3D6twA0tKEV8sKO-Ti-p7SevyVGrHZzUm70dYezDNaD8_RbNQxuCve_LehVGlApR_PoqrhF9_9TYCgoy0d2wQuoQZftX0VqxyvDxX96tJ-j-aRG5PMgb-vExM1V93_XygpRQXhFU8jiHHLvGotpcFd42OedZ2LnHGqz1wSfvAtm7DBLxIJCMUST6-1ODwUuNoE2vsRAQNWtFtqMyyzxtF9_R2ZkGs0ad1nOSBfDOmLbLfV7U7aJluHoVJl66NXy6tSY2UCJq_uxekfiNVYRv2MbShw0pvOc99gUwUglViAU5bzN5bLj5ZgEhT3mTWxu1c3oEeZTojjbpMQ==&amp;p=7&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Traffic Engineer</t>
+  </si>
+  <si>
+    <t>City of Grand Prairie</t>
+  </si>
+  <si>
+    <t>300 W Church St, Grand Prairie, TX 75050</t>
+  </si>
+  <si>
+    <t>Job Summary
+Under direction of the Senior Traffic Engineer, the Licensed Traffic Engineer is responsible for designing, operating, analyzing, and upda...</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/rc/clk?jk=4f66166e59bba463&amp;fccid=15f1bf178ddb6b42&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Senior Maintenance Engineer</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0Ac5fzJWlycUbOTNb_e9ABXEOkO4g4yIRCz8NlUl9bDsyjDj3gn7hpTA9hsBA2X0rD7R249nbl6LM-MFnblu6v0E0c4sP2JpED5UC8d-w6sUKJbrt48OFKqGOHcMMkE5pwmahpUgMuB-Vo6sj4hrG17AvWTNFAaCsqtocXBk7911wMWjfZoJsR9cPV0GvTPX0PckzHsAxpG2xgQSf1AG4rFbesT0MDt73P3hW95IfW-GxrTgY8lr9USqTTWzH4IlO0HI2wp5lnATl5KskDhMjUpPzouPTy7TOPI68ZNYKup_rGYXeeHLZDVxeiky4_58xvxFEYCNRyaAL0fw7t0H1sclsesM8hRtQuTeN1KIZO1PqtUdwGc74NLRn8AwqM6pIP2qiXJOGaLsTvKMVQefx03u98fHc91Yn5toy80oYL4OCcyJFbGdVH631sslfgn9cZvOESvyfIjv80MKEdshgskW77kUgZG07o6LGaayn9DVi1lNnmkLcQnG7KoW9nssUi2MwiR04v7ENBMP0fcwzZVXnTpjJWeYmgsPeo0QndfUmUmUClRIZ8F-EK0oNs-ZqS34RcyxkPLlh2xJuSOjWSvrr4ujvPGs_KkBn_kGdAKS5zlZIkPSi2qaLGqgH6IYVCR4L_XDrbxaDMWd7dEdfrDZZoDvkOJlU-77sJWkVYOvA==&amp;p=9&amp;fvj=1&amp;vjs=3</t>
   </si>
 </sst>
 </file>
@@ -222,9 +217,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,9 +543,9 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,155 +565,155 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -727,7 +725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="345" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -735,36 +733,36 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
-        <v>44</v>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
